--- a/dataset/Dataset.xlsx
+++ b/dataset/Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinulin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\DisBurser\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F136C28-1429-4A86-A607-D0C318CA14A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284E95EE-AE4D-4E1C-9D5C-DB7BD8E7E2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="1125" windowWidth="29745" windowHeight="17715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="330">
   <si>
     <t>Project</t>
   </si>
@@ -961,6 +961,60 @@
   </si>
   <si>
     <t>https://github.com/apache/zookeeper/pull/1818/commits/f75cba2b46ecae39c059cec5cd04d993bdf7d567</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Handle ConnectionTransportException during a Master/Node fault detection ping during Discovery</t>
+  </si>
+  <si>
+    <t>https://github.com/elastic/elasticsearch/pull/6686</t>
+  </si>
+  <si>
+    <t>ES_6866</t>
+  </si>
+  <si>
+    <t>https://github.com/elastic/elasticsearch/pull/6686/files</t>
+  </si>
+  <si>
+    <t>Fix a very rare case of corruption in compression used for internal cluster communication.</t>
+  </si>
+  <si>
+    <t>https://github.com/elastic/elasticsearch/pull/7210</t>
+  </si>
+  <si>
+    <t>ES_7210</t>
+  </si>
+  <si>
+    <t>https://github.com/elastic/elasticsearch/pull/7210/files</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>Resiliency: Throw exception if the JVM will corrupt data.</t>
+  </si>
+  <si>
+    <t>https://github.com/elastic/elasticsearch/pull/7580</t>
+  </si>
+  <si>
+    <t>ES_7580</t>
+  </si>
+  <si>
+    <t>https://github.com/elastic/elasticsearch/pull/7580/files</t>
+  </si>
+  <si>
+    <t>Check index uuid when merging incoming cluster state into the local one</t>
+  </si>
+  <si>
+    <t>https://github.com/elastic/elasticsearch/pull/9541</t>
+  </si>
+  <si>
+    <t>ES_9541</t>
+  </si>
+  <si>
+    <t>https://github.com/elastic/elasticsearch/pull/9541/files</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1339,7 +1393,7 @@
     <col min="6" max="6" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1379,7 +1433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="3" t="s">
@@ -1395,7 +1449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="3" t="s">
@@ -1411,7 +1465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>20</v>
@@ -1429,7 +1483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="3" t="s">
@@ -1445,7 +1499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="3" t="s">
@@ -1461,7 +1515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>33</v>
@@ -1479,7 +1533,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="3" t="s">
@@ -1495,7 +1549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="3" t="s">
@@ -1511,7 +1565,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
@@ -1531,7 +1585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="3" t="s">
@@ -1547,7 +1601,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="3" t="s">
@@ -1563,7 +1617,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="2">
         <v>3.7</v>
@@ -1581,7 +1635,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
         <v>64</v>
@@ -1599,7 +1653,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="3" t="s">
@@ -1615,7 +1669,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="3" t="s">
@@ -1631,7 +1685,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
         <v>77</v>
@@ -1649,7 +1703,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="3" t="s">
@@ -1665,7 +1719,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="3" t="s">
@@ -1681,7 +1735,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="3" t="s">
@@ -1697,849 +1751,904 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>95</v>
+      <c r="B22" s="7" t="s">
+        <v>312</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>97</v>
+        <v>314</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>101</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="3" t="s">
-        <v>102</v>
+        <v>317</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>103</v>
+        <v>318</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>106</v>
+        <v>322</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>107</v>
+        <v>323</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="3" t="s">
-        <v>110</v>
+        <v>326</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>111</v>
+        <v>327</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="7" t="s">
-        <v>114</v>
+      <c r="B26" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="228" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="C27" s="3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="B29" s="7"/>
       <c r="C29" s="3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="C30" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="3" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="B32" s="7"/>
       <c r="C32" s="3" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>145</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
       <c r="B33" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="171" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="3" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="3" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="7" t="s">
-        <v>159</v>
+      <c r="B36" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="114" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="C37" s="3" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="171" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="3" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="B39" s="7"/>
       <c r="C39" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="3" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
+      <c r="B44" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="C44" s="3" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="171" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
-      <c r="B46" s="7" t="s">
-        <v>204</v>
-      </c>
+      <c r="B46" s="7"/>
       <c r="C46" s="3" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="356.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="C47" s="3" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="3" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
-      <c r="B49" s="2" t="s">
-        <v>217</v>
-      </c>
+      <c r="B49" s="7"/>
       <c r="C49" s="3" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="7" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="171" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="3" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>235</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="6"/>
+      <c r="B53" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
+      <c r="B54" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="C54" s="3" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="3" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
-      <c r="B56" s="7" t="s">
-        <v>248</v>
-      </c>
+      <c r="B56" s="7"/>
       <c r="C56" s="3" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="C57" s="3" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="3" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>262</v>
-      </c>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="3" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
+      <c r="B60" s="7" t="s">
+        <v>248</v>
+      </c>
       <c r="C60" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="3" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
-      <c r="B62" s="7" t="s">
-        <v>275</v>
-      </c>
+      <c r="B62" s="7"/>
       <c r="C62" s="3" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="C63" s="3" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+      <c r="B66" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="6"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F68" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7" t="s">
+    <row r="69" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="6"/>
+      <c r="B69" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="3" t="s">
+    <row r="70" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F70" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="171" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="2" t="s">
+    <row r="71" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="6"/>
+      <c r="B71" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F71" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="2" t="s">
+    <row r="72" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A72" s="6"/>
+      <c r="B72" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F72" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="2" t="s">
+    <row r="73" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
+      <c r="B73" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F73" s="5" t="s">
         <v>311</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A59:A69"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B40:B42"/>
+  <mergeCells count="30">
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A63:A73"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B69:B70"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
@@ -2548,147 +2657,171 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A57:A62"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{491824FF-04CE-4D84-AEC6-50B18047A6EE}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{852B54C9-1697-4213-89ED-06EB29FB2114}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{D8D51AD5-4F9C-4B07-A2AC-7ADE5C741173}"/>
-    <hyperlink ref="F3" r:id="rId4" xr:uid="{E17C0289-4F44-4F0B-A1EB-BDA32F740CB5}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{CB818B0A-3F31-485F-B0B3-C518D68A2EF8}"/>
-    <hyperlink ref="F4" r:id="rId6" xr:uid="{927D8D45-59CD-42C1-99A8-AD7F218D6E79}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{78D89AB5-BC71-4B4B-943A-22D719402AAE}"/>
-    <hyperlink ref="F5" r:id="rId8" xr:uid="{35EBD343-7AA6-406E-BE48-F7218C79D45C}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{935D0622-1F4C-46C2-B64D-D5DF587D1AE5}"/>
-    <hyperlink ref="F6" r:id="rId10" xr:uid="{F2D444A8-8B6D-4B57-A394-FD3F38E83733}"/>
-    <hyperlink ref="D7" r:id="rId11" xr:uid="{21FC2EBA-BD35-4160-B04E-10316F05A034}"/>
-    <hyperlink ref="F7" r:id="rId12" xr:uid="{15FC35FD-9E4C-4A91-8D1F-638EDFE6A771}"/>
-    <hyperlink ref="D8" r:id="rId13" xr:uid="{6BB45401-BB11-4340-B27B-98D99800E398}"/>
-    <hyperlink ref="F8" r:id="rId14" xr:uid="{0255A8B8-BBC0-473F-B354-5994F35BA4B5}"/>
-    <hyperlink ref="D9" r:id="rId15" xr:uid="{099C885D-D421-4A03-B96A-31FD8F8A4E80}"/>
-    <hyperlink ref="F9" r:id="rId16" xr:uid="{9B2B1258-806F-426C-926C-14323C6C47E2}"/>
-    <hyperlink ref="D10" r:id="rId17" xr:uid="{255BFDCE-9184-4885-8209-1C721F1ADC96}"/>
-    <hyperlink ref="F10" r:id="rId18" xr:uid="{A9B7FADB-6914-46F5-A479-C5966B8C8915}"/>
-    <hyperlink ref="D11" r:id="rId19" xr:uid="{E499D2C4-95E0-47C6-A39E-A2FBA057FEEF}"/>
-    <hyperlink ref="F11" r:id="rId20" xr:uid="{880758E1-D5A1-44A6-9776-D4AD26DD849A}"/>
-    <hyperlink ref="D12" r:id="rId21" xr:uid="{0F38EA3B-6B75-4BCD-A7FC-E5BE5519841B}"/>
-    <hyperlink ref="F12" r:id="rId22" xr:uid="{0CA660EC-53D9-464D-8FA2-8E3630D1E90D}"/>
-    <hyperlink ref="D13" r:id="rId23" xr:uid="{EE34E241-D9EE-4830-A1CA-C706BBA8F5BD}"/>
-    <hyperlink ref="F13" r:id="rId24" xr:uid="{CF78F242-C273-4D32-A79B-1C77F732D16B}"/>
-    <hyperlink ref="D14" r:id="rId25" xr:uid="{F25E38F4-3681-4524-97D1-61F406AAC753}"/>
-    <hyperlink ref="F14" r:id="rId26" xr:uid="{37D12835-3164-444E-9483-9BB4951EC237}"/>
-    <hyperlink ref="D15" r:id="rId27" xr:uid="{9E7EE8F7-1ABE-4A2B-9D53-23EF4CB5458C}"/>
-    <hyperlink ref="F15" r:id="rId28" xr:uid="{8C80D252-E58A-47CE-AB7A-00456DDED72E}"/>
-    <hyperlink ref="D16" r:id="rId29" xr:uid="{5CEA143A-900D-43DB-8DF5-048DB462261B}"/>
-    <hyperlink ref="F16" r:id="rId30" xr:uid="{AD86682A-F88F-4215-BE26-87F54BE71854}"/>
-    <hyperlink ref="D17" r:id="rId31" xr:uid="{2F1EDB7E-78A2-4633-9661-B7813CA5614D}"/>
-    <hyperlink ref="F17" r:id="rId32" xr:uid="{D0DDEF6D-56E6-41C7-AD43-C790CEEC08AE}"/>
-    <hyperlink ref="D18" r:id="rId33" xr:uid="{A4119C47-9921-4902-A1D5-C89A5AADB137}"/>
-    <hyperlink ref="F18" r:id="rId34" xr:uid="{0D2FE97D-5B74-4BCE-8968-E151B73DC36B}"/>
-    <hyperlink ref="D19" r:id="rId35" xr:uid="{D81909F4-5110-4A1E-A1AA-06635D177E90}"/>
-    <hyperlink ref="F19" r:id="rId36" xr:uid="{2C212071-6D3D-4790-A248-9404B0DF114A}"/>
-    <hyperlink ref="D20" r:id="rId37" xr:uid="{ABDEADB8-71F8-44E4-B2AD-F1ABA83C59FB}"/>
-    <hyperlink ref="F20" r:id="rId38" xr:uid="{8092841D-CB67-4C18-BD67-C1FAA426B2D3}"/>
-    <hyperlink ref="D21" r:id="rId39" xr:uid="{9D33C683-8099-48A6-A573-79DB49B1C8ED}"/>
-    <hyperlink ref="F21" r:id="rId40" xr:uid="{2DF541BE-661E-454A-9B35-BDD2D69DB1B3}"/>
-    <hyperlink ref="D22" r:id="rId41" xr:uid="{9BC3B5B6-AF8B-459D-810A-FDCD8D938986}"/>
-    <hyperlink ref="F22" r:id="rId42" xr:uid="{194C14DC-47FA-4B8F-A5EA-89486BC0A0D8}"/>
-    <hyperlink ref="D23" r:id="rId43" xr:uid="{D4BA086E-AA1E-46F6-AA5A-2084D844D832}"/>
-    <hyperlink ref="F23" r:id="rId44" xr:uid="{4904E248-3F4F-4E89-AE78-B099AED721D7}"/>
-    <hyperlink ref="D24" r:id="rId45" xr:uid="{A63F74CB-6DB0-4309-BF30-9E5F10EC1850}"/>
-    <hyperlink ref="F24" r:id="rId46" xr:uid="{9EBD5012-86CD-46A0-96F9-8E3D7FE765B2}"/>
-    <hyperlink ref="D25" r:id="rId47" xr:uid="{FC3DEBB2-2797-4633-AB7A-C350E9D37C3C}"/>
-    <hyperlink ref="F25" r:id="rId48" xr:uid="{CA3EF0AF-7FBA-40C7-BD4A-DA6AAB9A95C3}"/>
-    <hyperlink ref="D26" r:id="rId49" xr:uid="{38608A4A-4845-4349-A25E-E0DAEC837408}"/>
-    <hyperlink ref="F26" r:id="rId50" xr:uid="{407C392A-A2F2-4C3C-879D-DEEC07342ACC}"/>
-    <hyperlink ref="D27" r:id="rId51" xr:uid="{E72F02A9-B7CC-44C5-B25B-6ED730FE777E}"/>
-    <hyperlink ref="F27" r:id="rId52" xr:uid="{F60B4EDA-1C7A-474E-A758-57076ACA9357}"/>
-    <hyperlink ref="D28" r:id="rId53" xr:uid="{8D6A4E50-0067-4AF0-A33B-E259E8FC9ED3}"/>
-    <hyperlink ref="F28" r:id="rId54" xr:uid="{FA4A7246-C0E3-4282-A657-AC8E3ADBCB9E}"/>
-    <hyperlink ref="D29" r:id="rId55" xr:uid="{8F624A20-3F3E-4F30-8441-C72AA6B9C322}"/>
-    <hyperlink ref="F29" r:id="rId56" xr:uid="{E65B3708-B785-4FF5-BA14-68F5903894FF}"/>
-    <hyperlink ref="D30" r:id="rId57" xr:uid="{4590C573-6FCE-4AB3-B014-FFD29F3B5531}"/>
-    <hyperlink ref="F30" r:id="rId58" xr:uid="{E0B4A7A7-7F2A-4418-8C2F-4A9584DBE27A}"/>
-    <hyperlink ref="D31" r:id="rId59" xr:uid="{F33EBB82-7DD4-417A-B7CE-753B1092EC1F}"/>
-    <hyperlink ref="F31" r:id="rId60" xr:uid="{344ECAEB-24E0-4C2A-8009-86198783D08F}"/>
-    <hyperlink ref="D32" r:id="rId61" xr:uid="{5D124CA3-E9A2-4815-BD4F-703E1877377B}"/>
-    <hyperlink ref="F32" r:id="rId62" xr:uid="{D42B0DFA-B169-458F-8395-C89B9A744E3E}"/>
-    <hyperlink ref="D33" r:id="rId63" xr:uid="{84A4BAF8-E9F2-42C3-9B05-CB8B583DA193}"/>
-    <hyperlink ref="F33" r:id="rId64" xr:uid="{BE57230B-8B93-4E1C-AECB-7C4B8FF5AB6F}"/>
-    <hyperlink ref="D34" r:id="rId65" xr:uid="{3327FC50-B87F-4F59-AA95-2F6CAD89578B}"/>
-    <hyperlink ref="F34" r:id="rId66" xr:uid="{1D926E4F-FE96-4178-B871-0624BDBA143A}"/>
-    <hyperlink ref="D35" r:id="rId67" xr:uid="{39CB342B-53CE-458F-88AD-AF972497AE56}"/>
-    <hyperlink ref="F35" r:id="rId68" xr:uid="{09371DEB-7A8E-46FA-ACF6-E0AEB436A1B6}"/>
-    <hyperlink ref="D36" r:id="rId69" xr:uid="{53FBC7CD-C027-4AF3-9DF7-79A6FB639EE7}"/>
-    <hyperlink ref="F36" r:id="rId70" xr:uid="{E6D0CF78-D5AD-4AF6-AE7E-C21B1300CA01}"/>
-    <hyperlink ref="D37" r:id="rId71" xr:uid="{B4006F97-7329-401E-94F8-8FB35885A8BD}"/>
-    <hyperlink ref="F37" r:id="rId72" xr:uid="{8F276BF3-77B4-440F-ABD8-DE1C2CFE8B4F}"/>
-    <hyperlink ref="D38" r:id="rId73" xr:uid="{FA360957-58BC-47B9-8133-7DB7AC555B67}"/>
-    <hyperlink ref="F38" r:id="rId74" xr:uid="{EF6447FE-627B-4577-BD14-8FD22D0944DC}"/>
-    <hyperlink ref="D39" r:id="rId75" xr:uid="{E612E029-3EED-429F-A1AC-05EDF121F5C3}"/>
-    <hyperlink ref="F39" r:id="rId76" location="diff-a754d10861bd8d44a6fac8dd2257b1154a03415851613d8b3cd3e99964713d7f" display="https://github.com/apache/hbase/pull/4105/commits/787f4c958372d137d85feadaa7a9e5f847d0ab8f - diff-a754d10861bd8d44a6fac8dd2257b1154a03415851613d8b3cd3e99964713d7f" xr:uid="{DE89B1C7-743D-437E-9178-5DEF747F2EAB}"/>
-    <hyperlink ref="D40" r:id="rId77" xr:uid="{675C1695-1FC8-4820-916F-FED34FCBD04A}"/>
-    <hyperlink ref="F40" r:id="rId78" xr:uid="{19F5A706-3B3C-4477-BC70-952EDC888734}"/>
-    <hyperlink ref="D41" r:id="rId79" xr:uid="{26885238-5CB3-47B6-9A4B-51B43F49E187}"/>
-    <hyperlink ref="F41" r:id="rId80" xr:uid="{121E939D-2F24-4F38-A8E1-32D2D9ED68CB}"/>
-    <hyperlink ref="D42" r:id="rId81" xr:uid="{694DF68F-B0A4-4094-BAE5-4156B7C769CB}"/>
-    <hyperlink ref="F42" r:id="rId82" xr:uid="{014FC9A5-9BFC-4D76-9F93-E0626E13DABB}"/>
-    <hyperlink ref="D43" r:id="rId83" xr:uid="{D7619937-E265-4D6D-974A-5C1C48D5C142}"/>
-    <hyperlink ref="F43" r:id="rId84" xr:uid="{4F188940-901D-4685-B77B-EC1B096A1AB8}"/>
-    <hyperlink ref="D44" r:id="rId85" xr:uid="{32ABD02E-4098-44F1-A39E-B0344D4CD97F}"/>
-    <hyperlink ref="F44" r:id="rId86" xr:uid="{B23EA151-38DA-4A10-8C72-355B14A5DD45}"/>
-    <hyperlink ref="D45" r:id="rId87" xr:uid="{F8FD3FA7-9675-426E-A24F-F5418167F3B7}"/>
-    <hyperlink ref="F45" r:id="rId88" xr:uid="{0AC2B4E5-A18C-43ED-8368-BBFE4160D4F5}"/>
-    <hyperlink ref="D46" r:id="rId89" xr:uid="{49208E65-7A12-40F1-9831-7A3CCCE0C8BE}"/>
-    <hyperlink ref="F46" r:id="rId90" xr:uid="{7EE493A4-DA87-423D-BCF8-9A1DDFE52945}"/>
-    <hyperlink ref="D47" r:id="rId91" xr:uid="{36BFA231-A3D0-4C5B-A315-EF51E13F68EB}"/>
-    <hyperlink ref="F47" r:id="rId92" xr:uid="{E0CBC518-D0B8-4A87-85E1-58AD1603D3E3}"/>
-    <hyperlink ref="D48" r:id="rId93" xr:uid="{F3B10186-AD27-4ED0-8CE4-628DD1DB8612}"/>
-    <hyperlink ref="F48" r:id="rId94" xr:uid="{2FCC8C3A-A866-4232-AAF9-2100E3321B4C}"/>
-    <hyperlink ref="D49" r:id="rId95" xr:uid="{EBFE1A45-A935-481C-8B3B-1201EDF8B2ED}"/>
-    <hyperlink ref="F49" r:id="rId96" xr:uid="{3553359B-EA07-48D1-A526-687B92FD017B}"/>
-    <hyperlink ref="D50" r:id="rId97" xr:uid="{79A57224-21B4-43BC-A605-77D5A5992DCD}"/>
-    <hyperlink ref="F50" r:id="rId98" xr:uid="{F5EED671-C2F5-4043-AF0F-BB3832D9447D}"/>
-    <hyperlink ref="D51" r:id="rId99" xr:uid="{2F52540C-EE82-44B3-B1F5-D317274F855B}"/>
-    <hyperlink ref="F51" r:id="rId100" xr:uid="{1F081EE8-9F28-4D4E-B533-5F5E0FCC3D88}"/>
-    <hyperlink ref="D52" r:id="rId101" xr:uid="{E57176F1-1FDD-4A07-A405-120040D5C000}"/>
-    <hyperlink ref="F52" r:id="rId102" xr:uid="{6E3147C7-F3B2-4C68-AF15-C29A0EF4D861}"/>
-    <hyperlink ref="D53" r:id="rId103" xr:uid="{2DF1B1B4-5A1D-4D39-BA9D-8CDA50780AB6}"/>
-    <hyperlink ref="F53" r:id="rId104" xr:uid="{B93ABFFE-8E96-4F36-AEA5-B51069853703}"/>
-    <hyperlink ref="D54" r:id="rId105" xr:uid="{08BE8687-8068-4774-B565-BB41DC776C8E}"/>
-    <hyperlink ref="F54" r:id="rId106" xr:uid="{AFEB040F-1CC7-44C7-BEF1-A5441664413D}"/>
-    <hyperlink ref="D55" r:id="rId107" xr:uid="{DFE696D2-E76D-434C-82B2-3B2A6CBABC88}"/>
-    <hyperlink ref="F55" r:id="rId108" xr:uid="{F82604A4-3B86-4650-9114-03C399329006}"/>
-    <hyperlink ref="D56" r:id="rId109" xr:uid="{FC215EFD-382D-4B9F-AF01-1F0273275424}"/>
-    <hyperlink ref="F56" r:id="rId110" xr:uid="{F7E07E81-380F-4103-8E98-02675B14FD2E}"/>
-    <hyperlink ref="D57" r:id="rId111" xr:uid="{F0F55521-2CBA-487A-ADA5-B2937659EB48}"/>
-    <hyperlink ref="F57" r:id="rId112" xr:uid="{3057B2D1-E84E-4340-8D67-BCA282A1F1FD}"/>
-    <hyperlink ref="D58" r:id="rId113" xr:uid="{2DF574DA-B1C5-427A-A766-0A02689DF30C}"/>
-    <hyperlink ref="F58" r:id="rId114" xr:uid="{6E1D407C-BA4D-4EBA-92D0-7581274D6719}"/>
-    <hyperlink ref="D59" r:id="rId115" xr:uid="{ADB7C0A5-30CC-4921-8DB3-E9AFD7F7C141}"/>
-    <hyperlink ref="F59" r:id="rId116" xr:uid="{1A51E8B3-3AFA-46E7-B20C-BC99DE1EAD41}"/>
-    <hyperlink ref="D60" r:id="rId117" xr:uid="{CD8748A5-5234-4F3A-98A5-15C25731B446}"/>
-    <hyperlink ref="F60" r:id="rId118" xr:uid="{7EAD9236-64AC-4C68-B716-A6201A213332}"/>
-    <hyperlink ref="D61" r:id="rId119" xr:uid="{EED0B3E8-7B24-4372-91D8-F373C566B1E7}"/>
-    <hyperlink ref="F61" r:id="rId120" xr:uid="{0FC420B5-E33A-43A7-9D51-7A7D91C507A6}"/>
-    <hyperlink ref="D62" r:id="rId121" xr:uid="{FB264205-2E93-44A6-955E-F2C1855E24FD}"/>
-    <hyperlink ref="F62" r:id="rId122" xr:uid="{4D49EDB2-4A6C-4D09-9689-B1B9D3F41CD3}"/>
-    <hyperlink ref="D63" r:id="rId123" xr:uid="{5E9DF847-EF38-48E0-86B7-992FCCE32EC1}"/>
-    <hyperlink ref="F63" r:id="rId124" xr:uid="{2A6FE4D3-18E1-4B99-A765-BF5287739F1A}"/>
-    <hyperlink ref="D64" r:id="rId125" xr:uid="{96A94E89-BA6C-4D90-B200-19CF82271A79}"/>
-    <hyperlink ref="F64" r:id="rId126" xr:uid="{16712546-83F8-44EE-8C25-DF51F0D8826D}"/>
-    <hyperlink ref="D65" r:id="rId127" xr:uid="{ADE431A2-C4D9-45C9-B960-37FFD2329DF5}"/>
-    <hyperlink ref="F65" r:id="rId128" xr:uid="{C1A010DD-F221-4BC4-B150-EBC3895D328D}"/>
-    <hyperlink ref="D66" r:id="rId129" xr:uid="{05CA43E6-FDA8-48F6-B5CE-6992001B22AC}"/>
-    <hyperlink ref="F66" r:id="rId130" xr:uid="{F74E6179-3154-4A2C-A8C0-3D3F6E9103A0}"/>
-    <hyperlink ref="D67" r:id="rId131" xr:uid="{5C6A3CF2-E143-4188-A6E4-8891ED24381B}"/>
-    <hyperlink ref="F67" r:id="rId132" xr:uid="{76459CE0-C4A2-4CCA-82B3-872225627697}"/>
-    <hyperlink ref="D68" r:id="rId133" xr:uid="{53FBECF0-CF5A-4114-A155-8E08175FF37C}"/>
-    <hyperlink ref="F68" r:id="rId134" xr:uid="{6CC7F319-565B-462B-B83A-2CC102941180}"/>
-    <hyperlink ref="D69" r:id="rId135" xr:uid="{CB3A20E4-1011-4B60-B287-8CFC61E261E8}"/>
-    <hyperlink ref="F69" r:id="rId136" xr:uid="{5D932787-D356-42F3-A04F-D28A2FD265D0}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{F39B68D5-BC12-4AC4-9CB6-1F2CAF122FEA}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{84E5BC2D-09CB-43F7-A7F5-DC4D95DC91FC}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{A991415B-3395-40CB-8325-53B7687F81A1}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{D4F7147F-596C-4D51-9B36-5C5554437C31}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{285B5BAE-E60A-454A-9F57-695B7D8C6092}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{D8358085-9B99-4E25-9B2B-2531A8345439}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{469BD526-BA55-4D72-82A2-79F71545914D}"/>
+    <hyperlink ref="F5" r:id="rId8" xr:uid="{74A2EAAB-9CB9-46BD-9DE0-DD293B9A439A}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{B6BCDDDA-A1A7-42B5-9751-E2777EA32173}"/>
+    <hyperlink ref="F6" r:id="rId10" xr:uid="{9F455530-543F-4BA6-B482-1DED80122D5E}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{63C90C14-FCE5-4D05-A089-6046AFE8FF7A}"/>
+    <hyperlink ref="F7" r:id="rId12" xr:uid="{67F69AD0-AEF5-41DB-8F2A-D83DB45FF3CC}"/>
+    <hyperlink ref="D8" r:id="rId13" xr:uid="{A9E6F894-FB3F-4777-8BC6-4079B89E7089}"/>
+    <hyperlink ref="F8" r:id="rId14" xr:uid="{ED28A087-6615-4CA2-8544-1A01627A1764}"/>
+    <hyperlink ref="D9" r:id="rId15" xr:uid="{3064B2AF-5476-4947-B04F-D0EB383BCF8B}"/>
+    <hyperlink ref="F9" r:id="rId16" xr:uid="{478120C1-C825-4BDB-8DC0-BF738B67073B}"/>
+    <hyperlink ref="D10" r:id="rId17" xr:uid="{1EB5A158-EBA5-4E41-8790-C744A220CA83}"/>
+    <hyperlink ref="F10" r:id="rId18" xr:uid="{F5F36435-FE84-4B47-929A-13372FAEE482}"/>
+    <hyperlink ref="D11" r:id="rId19" xr:uid="{40BB1E2A-3C31-4249-B81B-0AF0D7A6C209}"/>
+    <hyperlink ref="F11" r:id="rId20" xr:uid="{AFA3463D-C0A4-4B09-9E12-2593C7AFF516}"/>
+    <hyperlink ref="D12" r:id="rId21" xr:uid="{E0185794-4670-4CD4-9080-9EBB7E8F836D}"/>
+    <hyperlink ref="F12" r:id="rId22" xr:uid="{CD039F57-BA8B-430B-941C-0EC9731D56F8}"/>
+    <hyperlink ref="D13" r:id="rId23" xr:uid="{9423C9F0-BC84-466C-A66F-945DFFADE629}"/>
+    <hyperlink ref="F13" r:id="rId24" xr:uid="{AE0EC0F1-925C-47D7-85AA-1DAA9EC730B8}"/>
+    <hyperlink ref="D14" r:id="rId25" xr:uid="{6A711088-26BC-4A2D-AA73-2C4A1603B25C}"/>
+    <hyperlink ref="F14" r:id="rId26" xr:uid="{5277524F-EA87-4E60-800E-1CF4F4CC3B6E}"/>
+    <hyperlink ref="D15" r:id="rId27" xr:uid="{565BA348-0FBA-409D-9F3E-7B089624F592}"/>
+    <hyperlink ref="F15" r:id="rId28" xr:uid="{02197859-998B-44C9-9A46-B7928130F705}"/>
+    <hyperlink ref="D16" r:id="rId29" xr:uid="{3BA39277-4A89-4B05-87B0-2E54762A1656}"/>
+    <hyperlink ref="F16" r:id="rId30" xr:uid="{A4A5FBF8-E751-4694-9790-D3D6E513A9FB}"/>
+    <hyperlink ref="D17" r:id="rId31" xr:uid="{4E463805-ECCB-47ED-9295-B99425047AAB}"/>
+    <hyperlink ref="F17" r:id="rId32" xr:uid="{F143EA20-F279-4378-892B-16654529C738}"/>
+    <hyperlink ref="D18" r:id="rId33" xr:uid="{734B085F-1CAA-4CD6-A5F5-08A929AAD681}"/>
+    <hyperlink ref="F18" r:id="rId34" xr:uid="{7052F773-35D0-4757-8449-F1CE25A8BD5C}"/>
+    <hyperlink ref="D19" r:id="rId35" xr:uid="{24B0F70B-AEA3-422F-85B1-95946ECE321A}"/>
+    <hyperlink ref="F19" r:id="rId36" xr:uid="{80F646D8-7BEA-4A12-8EB0-062FD1FBF6ED}"/>
+    <hyperlink ref="D20" r:id="rId37" xr:uid="{044F464E-E23E-435A-A44E-25F37EB66FEF}"/>
+    <hyperlink ref="F20" r:id="rId38" xr:uid="{37D66897-B95F-4266-B4AE-83C895F1117B}"/>
+    <hyperlink ref="D21" r:id="rId39" xr:uid="{81F6C06E-27F2-4DD3-A9C0-63E761A0933C}"/>
+    <hyperlink ref="F21" r:id="rId40" xr:uid="{20B9955C-ADEB-444C-92C9-4406203EFCDE}"/>
+    <hyperlink ref="D22" r:id="rId41" xr:uid="{DE2D025D-DCC4-47B0-8207-3504DB1F042B}"/>
+    <hyperlink ref="F22" r:id="rId42" xr:uid="{C2F50CE8-B5EF-4D42-A76B-B6D2A829717E}"/>
+    <hyperlink ref="D23" r:id="rId43" xr:uid="{C6234428-0479-4D83-B08E-E431821FA4D8}"/>
+    <hyperlink ref="F23" r:id="rId44" xr:uid="{4B7F4446-4004-444A-AFDD-42D9F3FA08A8}"/>
+    <hyperlink ref="D24" r:id="rId45" xr:uid="{A7D3CAD8-9F4B-47EB-964B-7E21E5EF02F0}"/>
+    <hyperlink ref="F24" r:id="rId46" xr:uid="{284F19EE-1E81-4396-AF20-D59432303D33}"/>
+    <hyperlink ref="D25" r:id="rId47" xr:uid="{18962ABB-E3F3-47F7-B366-7303AD16B5A8}"/>
+    <hyperlink ref="F25" r:id="rId48" xr:uid="{86C42991-91D2-4321-96F1-1EFA3CADFCB5}"/>
+    <hyperlink ref="D26" r:id="rId49" xr:uid="{9C9DB952-E8AD-4754-B386-C9174A03B9F2}"/>
+    <hyperlink ref="F26" r:id="rId50" xr:uid="{6848F035-AC65-478B-9084-8CAF8045B1C4}"/>
+    <hyperlink ref="D27" r:id="rId51" xr:uid="{5C58FE61-204F-4A59-8BCE-947D018851E2}"/>
+    <hyperlink ref="F27" r:id="rId52" xr:uid="{6F5769C7-6B1B-43A0-8955-4032F49F8C04}"/>
+    <hyperlink ref="D28" r:id="rId53" xr:uid="{BA45CB1C-9B12-41EC-823A-F7700F432D15}"/>
+    <hyperlink ref="F28" r:id="rId54" xr:uid="{EF6F5AAC-F87F-4DB7-AB98-D4F8FA2C78CC}"/>
+    <hyperlink ref="D29" r:id="rId55" xr:uid="{106D6E01-F27D-4107-AE7E-18DB636367DE}"/>
+    <hyperlink ref="F29" r:id="rId56" xr:uid="{B2C2FE14-658D-4C6F-8BFD-6917874B33C5}"/>
+    <hyperlink ref="D30" r:id="rId57" xr:uid="{9609AC9A-6E57-4327-87E3-6002ACF5DA40}"/>
+    <hyperlink ref="F30" r:id="rId58" xr:uid="{252FFD93-D3A9-4333-8C53-8742B91E238C}"/>
+    <hyperlink ref="D31" r:id="rId59" xr:uid="{6D761B25-33A8-43F8-BC48-6FDEDBBAC811}"/>
+    <hyperlink ref="F31" r:id="rId60" xr:uid="{86E9DBCD-CE9A-411B-8369-27763DFF558B}"/>
+    <hyperlink ref="D32" r:id="rId61" xr:uid="{965C47D1-6A34-453A-89A5-459EBE51BC8D}"/>
+    <hyperlink ref="F32" r:id="rId62" xr:uid="{A18FB24E-00E5-431E-812C-8D5581C088D2}"/>
+    <hyperlink ref="D33" r:id="rId63" xr:uid="{3E3DDAF5-8DBF-4435-8347-3C3C476A9D7E}"/>
+    <hyperlink ref="F33" r:id="rId64" xr:uid="{37E50ABF-E467-4F73-BAE7-B94781BEA332}"/>
+    <hyperlink ref="D34" r:id="rId65" xr:uid="{8004DB19-A06F-4ED4-A047-3DDE91BA115D}"/>
+    <hyperlink ref="F34" r:id="rId66" xr:uid="{23EA1A54-3C4A-49CE-B870-408EC5BE163B}"/>
+    <hyperlink ref="D35" r:id="rId67" xr:uid="{82C7F132-4754-4B60-90C1-4DE7EB1E5D2D}"/>
+    <hyperlink ref="F35" r:id="rId68" xr:uid="{48C1181C-635B-4A7B-B553-D9B03DA22A30}"/>
+    <hyperlink ref="D36" r:id="rId69" xr:uid="{F9F3B5CE-57D2-4B2D-BF39-34A79343B5D7}"/>
+    <hyperlink ref="F36" r:id="rId70" xr:uid="{8EC99953-4ED4-42E3-AEB8-7A57BC858A81}"/>
+    <hyperlink ref="D37" r:id="rId71" xr:uid="{0655FF11-2E17-48BE-B677-5019660C79C6}"/>
+    <hyperlink ref="F37" r:id="rId72" xr:uid="{7A4C90B8-3E28-4E00-A116-C1D6EE74091D}"/>
+    <hyperlink ref="D38" r:id="rId73" xr:uid="{093D3AE7-F093-4537-9F25-57D1DFE28F0F}"/>
+    <hyperlink ref="F38" r:id="rId74" xr:uid="{7A061D1C-D36B-443E-BDF4-3F2CC67F3409}"/>
+    <hyperlink ref="D39" r:id="rId75" xr:uid="{034336B4-964C-448F-96A0-F536E5341717}"/>
+    <hyperlink ref="F39" r:id="rId76" xr:uid="{E2285C4D-8D71-4A9F-8CC1-A3B083223E1A}"/>
+    <hyperlink ref="D40" r:id="rId77" xr:uid="{4D34EAAF-0D4E-40C5-9F45-C7634BE4FF3D}"/>
+    <hyperlink ref="F40" r:id="rId78" xr:uid="{7FAB9F58-B096-4DA7-997C-638B46C48343}"/>
+    <hyperlink ref="D41" r:id="rId79" xr:uid="{F963C047-C2EE-44E2-9CF4-9023581B92DF}"/>
+    <hyperlink ref="F41" r:id="rId80" xr:uid="{971A0C8A-2767-4F2C-8B83-BDE03DBCEF0B}"/>
+    <hyperlink ref="D42" r:id="rId81" xr:uid="{5BED569B-9682-4040-922F-81DC89A7E804}"/>
+    <hyperlink ref="F42" r:id="rId82" xr:uid="{92DF8798-14A0-4C04-A95F-661ED5F68CDA}"/>
+    <hyperlink ref="D43" r:id="rId83" xr:uid="{6ABDC6AF-E29F-4DF4-9EFB-FD8FA6A58302}"/>
+    <hyperlink ref="F43" r:id="rId84" location="diff-a754d10861bd8d44a6fac8dd2257b1154a03415851613d8b3cd3e99964713d7f" display="https://github.com/apache/hbase/pull/4105/commits/787f4c958372d137d85feadaa7a9e5f847d0ab8f - diff-a754d10861bd8d44a6fac8dd2257b1154a03415851613d8b3cd3e99964713d7f" xr:uid="{54019DB4-62F2-461C-A904-1FAE8900A9F1}"/>
+    <hyperlink ref="D44" r:id="rId85" xr:uid="{09E48650-5EDC-4F90-8E8A-7D275FED6168}"/>
+    <hyperlink ref="F44" r:id="rId86" xr:uid="{5845C4D5-1A99-4D71-AC20-A288C059ECD7}"/>
+    <hyperlink ref="D45" r:id="rId87" xr:uid="{E4CD65F9-1A4A-4886-A1AB-9D35D02D3EC5}"/>
+    <hyperlink ref="F45" r:id="rId88" xr:uid="{B4B1111E-2311-48D1-A064-7DAE1208ABFC}"/>
+    <hyperlink ref="D46" r:id="rId89" xr:uid="{3A4D6FF7-9DE7-48B6-A6F2-E78FE85C0B47}"/>
+    <hyperlink ref="F46" r:id="rId90" xr:uid="{55A5D70E-9323-4720-9B16-2A04C42922B0}"/>
+    <hyperlink ref="D47" r:id="rId91" xr:uid="{1F534D74-C8C4-4528-87AB-7C42E2432052}"/>
+    <hyperlink ref="F47" r:id="rId92" xr:uid="{E48CDD2A-98FA-49B6-8C64-8203479F6BC6}"/>
+    <hyperlink ref="D48" r:id="rId93" xr:uid="{D8DA8720-4EBB-4BE1-B7D8-6A156DA3BB4F}"/>
+    <hyperlink ref="F48" r:id="rId94" xr:uid="{97A21A13-B62E-466E-A561-FF07DCBBA007}"/>
+    <hyperlink ref="D49" r:id="rId95" xr:uid="{F5D42363-6FC2-423C-880A-3DE8E6C84F42}"/>
+    <hyperlink ref="F49" r:id="rId96" xr:uid="{DDEF28D4-0E78-49DF-BACE-D284BAC8AB90}"/>
+    <hyperlink ref="D50" r:id="rId97" xr:uid="{1236A236-AB32-4562-A4E9-D867FFF00536}"/>
+    <hyperlink ref="F50" r:id="rId98" xr:uid="{EBBFD370-DFE0-41C0-A296-E27333BE72B0}"/>
+    <hyperlink ref="D51" r:id="rId99" xr:uid="{400487E4-CEF7-4627-A185-83E0FAA4F033}"/>
+    <hyperlink ref="F51" r:id="rId100" xr:uid="{F48A8B23-2B81-49BE-B276-81A4663D8545}"/>
+    <hyperlink ref="D52" r:id="rId101" xr:uid="{8C5C68BC-2D78-4DD7-AEC6-EE7E5776E065}"/>
+    <hyperlink ref="F52" r:id="rId102" xr:uid="{84324902-89F3-46A0-8EDF-8858D82D5215}"/>
+    <hyperlink ref="D53" r:id="rId103" xr:uid="{CF1C039D-7D8D-474A-A16F-F05F4D66734F}"/>
+    <hyperlink ref="F53" r:id="rId104" xr:uid="{BE8013AC-2FF9-4883-9590-0BBAE413F5C7}"/>
+    <hyperlink ref="D54" r:id="rId105" xr:uid="{1E60C64B-27AC-4633-A222-03E0ECF4B215}"/>
+    <hyperlink ref="F54" r:id="rId106" xr:uid="{0393BE1D-6425-40AD-A66F-C360FB77338D}"/>
+    <hyperlink ref="D55" r:id="rId107" xr:uid="{961C2519-6D37-440B-B418-2C98950C3B05}"/>
+    <hyperlink ref="F55" r:id="rId108" xr:uid="{D1FB9DA2-7078-47D9-9C6B-29B13976B870}"/>
+    <hyperlink ref="D56" r:id="rId109" xr:uid="{8ABFA08B-822B-4013-8ED3-617C589AFFCF}"/>
+    <hyperlink ref="F56" r:id="rId110" xr:uid="{6AF1E294-0B27-4501-9D9F-701494A0E77F}"/>
+    <hyperlink ref="D57" r:id="rId111" xr:uid="{EEED4E75-AD1B-4962-8DA6-656A59D490BB}"/>
+    <hyperlink ref="F57" r:id="rId112" xr:uid="{053E884D-EB2D-47EB-B158-6218CBF9A74F}"/>
+    <hyperlink ref="D58" r:id="rId113" xr:uid="{CB4894FF-32E9-4373-A3DF-1D660D77A8D9}"/>
+    <hyperlink ref="F58" r:id="rId114" xr:uid="{A610A83A-AEF8-4D86-85FE-6D8AD2D183C0}"/>
+    <hyperlink ref="D59" r:id="rId115" xr:uid="{A279981E-7D28-491B-A3B8-A6EDCFE1F98E}"/>
+    <hyperlink ref="F59" r:id="rId116" xr:uid="{FE10C245-0113-41CA-B673-14A374717664}"/>
+    <hyperlink ref="D60" r:id="rId117" xr:uid="{0D2DBE6E-84FA-4A77-A510-D3A63AC323FC}"/>
+    <hyperlink ref="F60" r:id="rId118" xr:uid="{63CDAE8D-CED9-4984-875A-2C858454A06C}"/>
+    <hyperlink ref="D61" r:id="rId119" xr:uid="{6F9E90AA-E8F2-445D-93EE-281F21E9191E}"/>
+    <hyperlink ref="F61" r:id="rId120" xr:uid="{A9736500-E090-49D4-885E-4F7DE0ABEE74}"/>
+    <hyperlink ref="D62" r:id="rId121" xr:uid="{D8B69B4B-E714-4A1E-9202-626404900AC1}"/>
+    <hyperlink ref="F62" r:id="rId122" xr:uid="{553E947A-6017-48CC-B352-493CA43BE64F}"/>
+    <hyperlink ref="D63" r:id="rId123" xr:uid="{35710D2E-6548-49C8-85D8-562339EAC093}"/>
+    <hyperlink ref="F63" r:id="rId124" xr:uid="{B68C35E1-6857-4881-ADFC-2C326437EBDE}"/>
+    <hyperlink ref="D64" r:id="rId125" xr:uid="{1738B1F0-7DC5-4977-8D70-680B4D88E51D}"/>
+    <hyperlink ref="F64" r:id="rId126" xr:uid="{965CA979-6073-4BE7-88C7-425C3ADD06ED}"/>
+    <hyperlink ref="D65" r:id="rId127" xr:uid="{7B9CB1AA-5BA7-4F22-902F-007E1DF04CFA}"/>
+    <hyperlink ref="F65" r:id="rId128" xr:uid="{4CFF0C4A-9BED-41FD-BCC4-B08AF4C167CF}"/>
+    <hyperlink ref="D66" r:id="rId129" xr:uid="{B326E877-9EFF-40A1-9EEE-BBDFCF02EC35}"/>
+    <hyperlink ref="F66" r:id="rId130" xr:uid="{41BDD8C7-584B-49E5-ABEE-45F82FB644A3}"/>
+    <hyperlink ref="D67" r:id="rId131" xr:uid="{A83FCA90-7D42-49DE-B72A-B4D6645940B2}"/>
+    <hyperlink ref="F67" r:id="rId132" xr:uid="{013657D1-AC84-484E-9C66-B8369A4D4A52}"/>
+    <hyperlink ref="D68" r:id="rId133" xr:uid="{2325AF1F-E9F0-421E-B4FC-D26CE9190494}"/>
+    <hyperlink ref="F68" r:id="rId134" xr:uid="{7B98F826-0CE2-4D8F-93E8-E6A9B889102A}"/>
+    <hyperlink ref="D69" r:id="rId135" xr:uid="{C9E273AB-78EB-4FC0-B98A-E14B81288A53}"/>
+    <hyperlink ref="F69" r:id="rId136" xr:uid="{44F200A7-87D9-490D-8769-42B1550ED161}"/>
+    <hyperlink ref="D70" r:id="rId137" xr:uid="{971AFF23-7B9A-4AAE-B15C-17C3A8250809}"/>
+    <hyperlink ref="F70" r:id="rId138" xr:uid="{2FE1B385-EF6C-4A88-B0EF-199264729660}"/>
+    <hyperlink ref="D71" r:id="rId139" xr:uid="{5BC2CDB0-C98C-40D6-B0E3-F025DD180F8D}"/>
+    <hyperlink ref="F71" r:id="rId140" xr:uid="{24855FF7-8349-422C-97CB-255A800D3739}"/>
+    <hyperlink ref="D72" r:id="rId141" xr:uid="{9C949046-88B6-4388-8128-65E6302E52C3}"/>
+    <hyperlink ref="F72" r:id="rId142" xr:uid="{E3C8D32B-1C12-438B-ADF6-F35484CA720E}"/>
+    <hyperlink ref="D73" r:id="rId143" xr:uid="{904277CE-E743-4FD3-B048-C8C791E5B492}"/>
+    <hyperlink ref="F73" r:id="rId144" xr:uid="{8E48AF46-239D-4BA7-858D-42416ABA45BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId137"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId145"/>
 </worksheet>
 </file>